--- a/dir_Area.xlsx
+++ b/dir_Area.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\Directorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B773A246-6B16-4D75-BAA5-5C0E92252969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F9E897-6E03-4A48-AF14-ABBFBAC47CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -35,12 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>Bogotá</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>Ibagué</t>
   </si>
   <si>
-    <t>San André</t>
-  </si>
-  <si>
     <t>Medellín</t>
   </si>
   <si>
@@ -183,6 +174,15 @@
   </si>
   <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Categoría</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,9 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77997886-12EA-47C2-AF4E-4559AD86DA82}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1038,203 +1039,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
